--- a/biology/Botanique/Champagne_Chanoine_Frères/Champagne_Chanoine_Frères.xlsx
+++ b/biology/Botanique/Champagne_Chanoine_Frères/Champagne_Chanoine_Frères.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champagne_Chanoine_Fr%C3%A8res</t>
+          <t>Champagne_Chanoine_Frères</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Chanoine Frères est la deuxième plus ancienne maison de Champagne (fondée en 1730 à Épernay, soit un an après Ruinart). Aujourd'hui elle appartient au groupe Lanson-BCC. Sa production est de 3,5 millions de bouteilles par an (dont 500 000 pour la marque Tsarine)[2].
+Chanoine Frères est la deuxième plus ancienne maison de Champagne (fondée en 1730 à Épernay, soit un an après Ruinart). Aujourd'hui elle appartient au groupe Lanson-BCC. Sa production est de 3,5 millions de bouteilles par an (dont 500 000 pour la marque Tsarine).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champagne_Chanoine_Fr%C3%A8res</t>
+          <t>Champagne_Chanoine_Frères</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Chanoine est l'une des plus vieilles familles d'Épernay.
 Dès 1730, sous le règne du roi Louis XV, Jacques-Louis et Jean-Baptiste Chanoine y établissent une maison de commerce de vins de Champagne sous la raison sociale Chanoine Frères.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Champagne_Chanoine_Fr%C3%A8res</t>
+          <t>Champagne_Chanoine_Frères</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Famille Chanoine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La généalogie de la famille Chanoine a été publiée dans le Recueil généalogique de la bourgeoisie ancienne d'André Delavenne (1956, S.G.A.F. Paris).
 Les membres de cette famille se sont illustrés dans le négoce des vins de Champagne ainsi que dans l'armée :
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Champagne_Chanoine_Fr%C3%A8res</t>
+          <t>Champagne_Chanoine_Frères</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Gamme de produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grande Réserve (70 % pinot noir, 15 % meunier, 15 % chardonnay), région d'Épernay
 Millésime 1995 (100 % chardonnay), Côte des Blancs
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Champagne_Chanoine_Fr%C3%A8res</t>
+          <t>Champagne_Chanoine_Frères</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Cuvée de prestige</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tsarine</t>
         </is>
